--- a/test/check03/check03_test05_in.xlsx
+++ b/test/check03/check03_test05_in.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\GitHub\high-frequency-checks\test\check03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -25,14 +25,16 @@
     <sheet name="10. dates" sheetId="10" r:id="rId11"/>
     <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
     <sheet name="enumdb" sheetId="13" r:id="rId13"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
+    <sheet name="research oneway" sheetId="16" r:id="rId14"/>
+    <sheet name="research twoway" sheetId="17" r:id="rId15"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>variable</t>
   </si>
@@ -194,6 +196,12 @@
   </si>
   <si>
     <t>consent*</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>by</t>
   </si>
 </sst>
 </file>
@@ -496,7 +504,65 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3664,6 +3730,1133 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2615795C-CD33-4A24-981A-7AA6E44AF849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: One-Way Summary</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display one-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of one-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C1F7FE-0736-42DC-87FE-F291509A1028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE23751-283A-4BC0-80D9-FEDB50852A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6564525-01FC-449B-AA3F-E2D2F2537D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439150" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BD3E7F-AAD1-4FB7-BD74-6848F0D71F51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706876A5-AF5D-4FDC-9B20-E63007E1DC68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8F45A5-AF19-4BD2-A428-F57EC4090BEB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4110E5-1BE6-4236-BC9D-CF52F2323695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3371850"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B4B525-0200-4F9B-80F7-471A71823745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: Two-Way Summaries</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display two-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of two-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562FBF57-24C4-47E1-842E-5C6B02B2FEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381C8018-8069-4182-81CD-32907E28C0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F810CB-A75F-4701-9F9A-32C0DE8784CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3352800"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>by</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D1FA5A-934C-4FB2-B0E0-14A7022FE5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9820275" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80330A8D-60B3-42E7-86FE-38FC9BE85C98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A510F068-D3F5-4797-8E06-288E4731FCA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AD8151-440C-40DE-9D1E-ECCF0164BDFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD6C64-925D-40B5-8DCD-6DFFC1538C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4048125"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9048,7 +10241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -9348,12 +10541,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9415,12 +10608,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9473,12 +10666,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9722,12 +10915,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9737,6 +10930,386 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A$1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9792,12 +11365,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9838,12 +11411,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9856,7 +11429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -9894,12 +11467,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9961,12 +11534,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10007,12 +11580,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10073,12 +11646,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10713,12 +12286,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11227,12 +12800,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
